--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3009272.408862454</v>
+        <v>3007384.827346053</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9009531.468774872</v>
+        <v>9009531.46877487</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>176.9102945984803</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>176.7166301627354</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.25025504144588</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>312.8975285727203</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.4866385018644</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>199.8011897576367</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.8783469293136</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>86.11283245544988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.90445977359185</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>70.43533402630995</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.1796758467002</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603051</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359214</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467002</v>
+        <v>245.5591000916435</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>43.7217001535063</v>
       </c>
       <c r="V25" t="n">
-        <v>149.0799667719513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002175</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965548</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>22.14609241444229</v>
       </c>
       <c r="G31" t="n">
-        <v>21.65873182143664</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523588</v>
+        <v>54.76109577523593</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952711</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
         <v>959.5129866402885</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.245646591693</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.483861229785</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>549.6273375774088</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>549.6273375774088</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.6273375774088</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822953</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.241224882541</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>934.4529722842967</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>523.4670674946892</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4577,16 +4577,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>348.7460229006679</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>348.7460229006679</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>348.7460229006679</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150933</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,25 +5018,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,25 +5045,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>337.3000764349705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>168.3638935070636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>786.082206476518</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>786.082206476518</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W13" t="n">
-        <v>786.082206476518</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X13" t="n">
-        <v>558.0926555785006</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.3000764349705</v>
+        <v>164.7973538578534</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,7 +5273,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
@@ -5285,7 +5285,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5300,25 +5300,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>835.4163915387938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011504</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583031</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
+        <v>318.0096706038159</v>
+      </c>
+      <c r="Y19" t="n">
         <v>97.21709146028584</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,13 +5771,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387937</v>
+        <v>796.2722772255033</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885428</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387938</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,40 +6458,40 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163756</v>
+        <v>439.5324299542146</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698393</v>
+        <v>326.3571123076783</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388741</v>
+        <v>232.0013381767133</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378516</v>
+        <v>232.0013381767133</v>
       </c>
       <c r="F31" t="n">
-        <v>213.751741521312</v>
+        <v>209.6315478590947</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818913</v>
+        <v>902.6804289818901</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652446</v>
+        <v>730.4517433652434</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652446</v>
+        <v>565.4200295030838</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,19 +7023,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7789,28 +7789,28 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>85.30006332127829</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>199.6230805871096</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.23759968302136</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>104.6241510367952</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>444.488938686166</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>18.73797368291389</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9275204083454</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>39.98391143796205</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>14.74113413690299</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628594</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>185.2331835502359</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518771</v>
+        <v>40.67825230693379</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>242.515652245071</v>
       </c>
       <c r="V25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615193</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180123</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.07169897993208</v>
       </c>
       <c r="G31" t="n">
-        <v>89.63158001338402</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897925</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571512</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787219.9368868766</v>
+        <v>787219.9368868765</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803336</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803339</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="I2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524315</v>
+        <v>650915.4197524313</v>
       </c>
       <c r="L2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="N2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="N2" t="n">
-        <v>656833.4158914273</v>
-      </c>
       <c r="O2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.27373675443232e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.6053028455</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086713</v>
+        <v>10342.90680086706</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.6053028455</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143912</v>
@@ -26436,28 +26436,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275955</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.49963775</v>
+        <v>-172768.4996377496</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767944</v>
+        <v>417199.3795767942</v>
       </c>
       <c r="D6" t="n">
         <v>417199.3795767946</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.53646671804</v>
+        <v>-6643.99559269016</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101778</v>
+        <v>518516.0408842062</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101783</v>
+        <v>518516.040884206</v>
       </c>
       <c r="H6" t="n">
-        <v>518613.5000101784</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101784</v>
+        <v>518516.040884206</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175856</v>
+        <v>342092.8216916135</v>
       </c>
       <c r="K6" t="n">
-        <v>476914.3137837276</v>
+        <v>476895.8200457931</v>
       </c>
       <c r="L6" t="n">
         <v>511310.9464077749</v>
       </c>
       <c r="M6" t="n">
-        <v>386852.8379748046</v>
+        <v>386852.8379748048</v>
       </c>
       <c r="N6" t="n">
-        <v>521653.8532086424</v>
+        <v>521653.8532086416</v>
       </c>
       <c r="O6" t="n">
-        <v>521653.8532086418</v>
+        <v>521653.8532086421</v>
       </c>
       <c r="P6" t="n">
-        <v>477491.2479057966</v>
+        <v>477491.2479057964</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.72061316808487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8421709430404e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8421709430404e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108372</v>
+        <v>12.92863350108382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.87844222504447e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8421709430404e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.53802575917749</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35.42890878728349</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>157.7848504166384</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100.8866414480747</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.7543302155486</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>12.34434919238217</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>91.85549473416694</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>166.0248108683781</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030449</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.055600051813599e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,7 +36443,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>395.7244403717445</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>510.0474576375758</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412239</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584674</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>401.6619767334876</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>311.7175659683198</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,10 +37543,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
